--- a/biology/Microbiologie/Leiotrochidae/Leiotrochidae.xlsx
+++ b/biology/Microbiologie/Leiotrochidae/Leiotrochidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Leiotrochidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Leiotrocha, composé du préfixe leio, « lisse, sans poil », et du suffixe -troch, « roue, disque », littéralement « disque sans poil », en référence à la forme et à l'apparente absence de cils de cet organisme.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Leiotrochidae ont une taille moyenne (80 à 200 μm). Ils sont en forme de cylindre ou de tonneau, avec leur extrémité apicale légèrement renflée et la présence d'anneaux pelliculaires autour du corps. Ils possèdent un disque adhésif avec environs vingt denticules lisses, de forme simple, entourant la scopule ciliée[note 1]. La ciliature buccale forme une spirale dont le rayon, égal à celui du disque adhésif, est d'environ 400°. Leur macronoyau est bulbeux et possède deux bras, constituant à peu près la forme d'un « H ». Le micronoyau n'a pas été observé. Une vacuole contractile est présente. Le cytoprocte n'a pas été observé[1].
-Fabre-Domergue identifie notamment, chez le genre Leiotrocha, un organite ciliaire particulier la « soie de Lachmann »[2], lequel fut décrit par le naturaliste allemand Johannes Lachmann (d) en 1856[note 2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Leiotrochidae ont une taille moyenne (80 à 200 μm). Ils sont en forme de cylindre ou de tonneau, avec leur extrémité apicale légèrement renflée et la présence d'anneaux pelliculaires autour du corps. Ils possèdent un disque adhésif avec environs vingt denticules lisses, de forme simple, entourant la scopule ciliée[note 1]. La ciliature buccale forme une spirale dont le rayon, égal à celui du disque adhésif, est d'environ 400°. Leur macronoyau est bulbeux et possède deux bras, constituant à peu près la forme d'un « H ». Le micronoyau n'a pas été observé. Une vacuole contractile est présente. Le cytoprocte n'a pas été observé.
+Fabre-Domergue identifie notamment, chez le genre Leiotrocha, un organite ciliaire particulier la « soie de Lachmann », lequel fut décrit par le naturaliste allemand Johannes Lachmann (d) en 1856[note 2].
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Leiotrochidae vivent dans les eaux marines, sous forme de symbiotes sur les branchies des mollusques et sur d'autres invertébrés (par exemple, sur les épines des oursins)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Leiotrochidae vivent dans les eaux marines, sous forme de symbiotes sur les branchies des mollusques et sur d'autres invertébrés (par exemple, sur les épines des oursins).
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 janvier 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 janvier 2024) :
 Digitophrya Matthes, 1988
-Selon Lynn (2010) et World Register of Marine Species                               (5 janvier 2024)[4]
+Selon Lynn (2010) et World Register of Marine Species                               (5 janvier 2024)
 Leiotrocha Fabre-Domergue, 1888
 Genre synonyme subjectif : Trichodina Ehrenberg, 1830
 Espèce type : Leiotrocha serpularum Fabre-Domergue, 1888</t>
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Leiotrochidae Johnston, 1938[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Leiotrochidae Johnston, 1938.
 </t>
         </is>
       </c>
